--- a/jsf2-primefaces-spring/src/main/resources/excel/book.xlsx
+++ b/jsf2-primefaces-spring/src/main/resources/excel/book.xlsx
@@ -71,10 +71,10 @@
     <t>${msg.getProperty('search_criteria')}</t>
   </si>
   <si>
-    <t>${msg.getProperty('book_account')}</t>
-  </si>
-  <si>
-    <t>${account}</t>
+    <t>${msg.getProperty('search_full_text')}</t>
+  </si>
+  <si>
+    <t>${search_full_text}</t>
   </si>
   <si>
     <t>${title}</t>

--- a/jsf2-primefaces-spring/src/main/resources/excel/book.xlsx
+++ b/jsf2-primefaces-spring/src/main/resources/excel/book.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>${msg.getProperty('book_id')}</t>
   </si>
@@ -26,16 +26,16 @@
     <t>${book.id}</t>
   </si>
   <si>
-    <t>${msg.getProperty('book_accountId')}</t>
-  </si>
-  <si>
-    <t>${book.accountId}</t>
-  </si>
-  <si>
-    <t>${msg.getProperty('book_title')}</t>
-  </si>
-  <si>
-    <t>${book.title}</t>
+    <t>${msg.getProperty('book_owner')}</t>
+  </si>
+  <si>
+    <t>${printer.print(book.owner)}</t>
+  </si>
+  <si>
+    <t>${msg.getProperty('book_bookTitle')}</t>
+  </si>
+  <si>
+    <t>${book.bookTitle}</t>
   </si>
   <si>
     <t>${msg.getProperty('book_numberOfPages')}</t>
@@ -77,7 +77,10 @@
     <t>${search_full_text}</t>
   </si>
   <si>
-    <t>${title}</t>
+    <t>${owner}</t>
+  </si>
+  <si>
+    <t>${bookTitle}</t>
   </si>
   <si>
     <t>${msg.getProperty('range_from')}</t>
@@ -530,7 +533,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -538,19 +541,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
